--- a/medicine/Psychotrope/Bayreuther_Bierbrauerei/Bayreuther_Bierbrauerei.xlsx
+++ b/medicine/Psychotrope/Bayreuther_Bierbrauerei/Bayreuther_Bierbrauerei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Bayreuther Bierbrauerei AG est une brasserie à Bayreuth, dans le district de Haute-Franconie.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hugo Bayerlein (né en 1833) arrive à 24 ans en tant que brasseur de Munich dans sa ville natale de Bayreuth. Il commence en 1857 au Herzog, une colline à l'ouest du Roter Main. À cette époque, la brasserie préindustrielle est encore réservée aux métiers classiques de la boulangerie et de la restauration.
 Entre 1857 et 1858 émergent les bâtiments industriels : malterie avec touraillage, brasserie avec pompe à eau, tuyauterie, plaque de brassage, pompes à bière, des cuves de brassage, une chambre froide avec cave de fermentation sous-jacente… Les bâtiments sont encore largement préservés et utilisés. En 1872, Hugo Bayerlein vend la brasserie aux banquiers de Feustel, Wilmersdörfer et Riemann, ainsi qu'au propriétaire terrien Roth. Friedrich von Feustel transforme la brasserie en 1872 en une Aktienbrauerei.
@@ -547,7 +561,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Aktien Zwick'l (Kellerbier)
 Aktien Landbier (Dunkles)
